--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2037.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2037.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.154578061621104</v>
+        <v>1.231550931930542</v>
       </c>
       <c r="B1">
-        <v>2.368153714146433</v>
+        <v>2.154545783996582</v>
       </c>
       <c r="C1">
-        <v>6.247655249084382</v>
+        <v>6.016922950744629</v>
       </c>
       <c r="D1">
-        <v>2.34409252783305</v>
+        <v>1.980476379394531</v>
       </c>
       <c r="E1">
-        <v>1.217864851025222</v>
+        <v>1.150825262069702</v>
       </c>
     </row>
   </sheetData>
